--- a/The Productivity Project.xlsx
+++ b/The Productivity Project.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keng\Desktop\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9C4C2C-1687-462D-8C1B-186B846268BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF036258-C304-40B1-9114-B373C01F94F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="วางรากฐาน" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>1.ถ้ามีเวลาเพิ่มขึ้น 2 ชม.</t>
   </si>
@@ -121,16 +121,69 @@
   </si>
   <si>
     <t>2.ระบุงานเล็กๆน้อยเพิ่มได้ แต่ต้องดูจากข้อจำกัดด้วย</t>
+  </si>
+  <si>
+    <t>3.feedback ว่า3สิ่งนั้น ใช้พลังงาน สมาธิ เวลา เท่าไหร่</t>
+  </si>
+  <si>
+    <t>ภารกิจช่วงเวลาทอง</t>
+  </si>
+  <si>
+    <t>พลังงาน</t>
+  </si>
+  <si>
+    <t>พยายามงด น้ำตาล คาเฟอีน</t>
+  </si>
+  <si>
+    <t>เวลา</t>
+  </si>
+  <si>
+    <t>บันทึก 3 อย่างทุกต้นชม.</t>
+  </si>
+  <si>
+    <t>1.ระดับพลังงาน</t>
+  </si>
+  <si>
+    <t>2.กำลังทำอะไร</t>
+  </si>
+  <si>
+    <t>3.อู้งานกี่นาที (โดยประมาณ)</t>
+  </si>
+  <si>
+    <t>ระดับพลังงาน</t>
+  </si>
+  <si>
+    <t>กำลังทำอะไร</t>
+  </si>
+  <si>
+    <t>อู้งานกี่นาที (โดยประมาณ)</t>
+  </si>
+  <si>
+    <t>วัน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,14 +205,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,13 +503,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -602,7 +673,158 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/The Productivity Project.xlsx
+++ b/The Productivity Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keng\Desktop\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF036258-C304-40B1-9114-B373C01F94F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203042AB-28FD-4415-874A-4AC367301EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="วางรากฐาน" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>1.ถ้ามีเวลาเพิ่มขึ้น 2 ชม.</t>
   </si>
@@ -160,6 +160,129 @@
   </si>
   <si>
     <t>วัน</t>
+  </si>
+  <si>
+    <t>นอน (เลื่อนนาฬิกาปลุก)</t>
+  </si>
+  <si>
+    <t>นอน (เพิ่งตื่น)</t>
+  </si>
+  <si>
+    <t>เดินไปตลาดเพื่อซื้อกับข้าว</t>
+  </si>
+  <si>
+    <t>อาบน้ำ,กินข้าว,ล้างจาน,ให้อาหาร</t>
+  </si>
+  <si>
+    <t>เริ่มเรียน C++ (อู้เพราะรอfหนังสือ)</t>
+  </si>
+  <si>
+    <t>เรียน C++</t>
+  </si>
+  <si>
+    <t>ทำหุ่นยนต์</t>
+  </si>
+  <si>
+    <t>กินข้าว,ทำหุ่นยนต์</t>
+  </si>
+  <si>
+    <t>กินข้าว</t>
+  </si>
+  <si>
+    <t>ล้างจาน,เรียน C++</t>
+  </si>
+  <si>
+    <t>จัดหนังสือในgoodreads,ให้อาหาร</t>
+  </si>
+  <si>
+    <t>อาบน้ำ,จัดหนังสือ</t>
+  </si>
+  <si>
+    <t>จัดหนังสือ</t>
+  </si>
+  <si>
+    <t>นอนเล่นมือถือ</t>
+  </si>
+  <si>
+    <t>นอน(ตื่น8.30)</t>
+  </si>
+  <si>
+    <t>ให้อาหาร,กินข้าว+ดูหนัง</t>
+  </si>
+  <si>
+    <t>กินข้าว+ดูหนัง,เล่นเน็ต</t>
+  </si>
+  <si>
+    <t>เล่นเน็ต</t>
+  </si>
+  <si>
+    <t>กินข้าว+ดูหนัง (กินไก่ย่าง)</t>
+  </si>
+  <si>
+    <t>ทำความสะอาดห้องแมว</t>
+  </si>
+  <si>
+    <t>ล้างห้องน้ำ,อาบน้ำ</t>
+  </si>
+  <si>
+    <t>เล่นเน็ต,เก็บห้องทำงาน</t>
+  </si>
+  <si>
+    <t>เล่นมือถือ+เลือกข้าวเย็น</t>
+  </si>
+  <si>
+    <t>กินข้าว+ดูหนัง,จัดหนังสือ</t>
+  </si>
+  <si>
+    <t>หยุด</t>
+  </si>
+  <si>
+    <t>เล่นมือถือ</t>
+  </si>
+  <si>
+    <t>เพิ่งตื่น(8.30)+สั่งข้าว+นอนรอข้าว</t>
+  </si>
+  <si>
+    <t>ทำความสะอาดคอกกระต่าย</t>
+  </si>
+  <si>
+    <t>ทำความสะอาดคอกกระต่าย,อาบน้ำอีกรอบ,เช็คหนังสือ,คุยไลน์,ทำบูโจ</t>
+  </si>
+  <si>
+    <t>กินข้าว+เล่นมือถือ,อาบน้ำ,ให้อาหาร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ออกไปซื้อข้าว </t>
+  </si>
+  <si>
+    <t>กินข้าว+ดูหนัง</t>
+  </si>
+  <si>
+    <t>ให้อาหาร,คุยกับมุก</t>
+  </si>
+  <si>
+    <t>คุยกับมุก</t>
+  </si>
+  <si>
+    <t>คุยกับมุก,นอน</t>
+  </si>
+  <si>
+    <t>พัก</t>
+  </si>
+  <si>
+    <t>เลือกข้าว,ให้อาหาร,ทำความสะอาดกรงกระต่าย</t>
+  </si>
+  <si>
+    <t>อาบน้ำ,กินข้าว+ดูหนัง</t>
+  </si>
+  <si>
+    <t>ทำบูโจ,สอนโบ๊ท</t>
+  </si>
+  <si>
+    <t>ทำบูโจ,จัดหนังสือ (กินกาแฟ)</t>
+  </si>
+  <si>
+    <t>อ่านหนังสือ (กินกาแฟ)</t>
   </si>
 </sst>
 </file>
@@ -503,36 +626,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="86" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -540,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -548,177 +671,177 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
@@ -735,92 +858,845 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>21</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>23</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>28</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>80</v>
+      </c>
+      <c r="F108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>85</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/The Productivity Project.xlsx
+++ b/The Productivity Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keng\Desktop\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203042AB-28FD-4415-874A-4AC367301EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9BEA85-FC5B-4284-9BCA-8F9AB04C6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/The Productivity Project.xlsx
+++ b/The Productivity Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keng\Desktop\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176BC626-7E94-41F9-8468-1F30B961D974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2164C5BA-7596-4CF7-BE21-1B3662299663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="วางรากฐาน" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
   <si>
     <t>1.ถ้ามีเวลาเพิ่มขึ้น 2 ชม.</t>
   </si>
@@ -316,9 +316,6 @@
     <t>กินข้าว+ดูหนัง(กินกาแฟ)</t>
   </si>
   <si>
-    <t>เช็คหนังสือ,</t>
-  </si>
-  <si>
     <t>ภารกิจพลิกโฉม</t>
   </si>
   <si>
@@ -395,6 +392,18 @@
   </si>
   <si>
     <t>3.เริ่มลงมือทำ</t>
+  </si>
+  <si>
+    <t>เรียน C++,อ่านหนังสือ</t>
+  </si>
+  <si>
+    <t>เช็คหนังสือ,เรียน C++</t>
+  </si>
+  <si>
+    <t>ภารกิจลดเวลาทำงาน</t>
+  </si>
+  <si>
+    <t>ตั้งเวลานับถอยหลัง (ให้น้อยกว่าที่คิด) ก่อนเริ่มงาน</t>
   </si>
 </sst>
 </file>
@@ -753,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,126 +981,136 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
         <v>107</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" t="s">
         <v>109</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>114</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" t="s">
-        <v>113</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1102,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9B519C-8169-4DA9-90D2-7A7D0167B31E}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,11 +2193,31 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E85">
         <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
